--- a/biology/Médecine/Martin_Kukučín/Martin_Kukučín.xlsx
+++ b/biology/Médecine/Martin_Kukučín/Martin_Kukučín.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martin_Kuku%C4%8D%C3%ADn</t>
+          <t>Martin_Kukučín</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Kukučín (né Matej Bencúr le 17 mai 1860 à Jasenová et mort le 21 mai 1928) est un médecin, écrivain, dramaturge et publicitaire slovaque. Il est considéré comme étant le représentant le plus notable du réalisme slovaque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin_Kuku%C4%8D%C3%ADn</t>
+          <t>Martin_Kukučín</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kukučín naît dans une famille de soltys[1]. Il est le fils de Ján Bencúr Juriš et de Zuzana Pašková. Il a deux frères et une sœur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kukučín naît dans une famille de soltys. Il est le fils de Ján Bencúr Juriš et de Zuzana Pašková. Il a deux frères et une sœur.
 Kukučín fréquente les gymnasium slovaques de Revúca, Martin, Banská Bystrica, Kežmarok et Sopron. Désirant poursuivre des études de théologie à Bratislava, il choisit plutôt de faire des études de médecine à Prague en raison du climat anti-Slovaque de l'époque. Après avoir complété son internat à Bratislava, Innsbruck et Vienne, il tente de trouver du travail en Slovaquie, sans succès. 
 En 1893, Kukučín commence à travailler comme médecin dans le village de Selca, sur l'île de Brač (Croatie). En 1896–97, il tente de retourner en Slovaquie, sans succès.
 Kukučín est actif au sein de la société culturelle Hrvatski Sastanak, devenant l'un de ses administrateurs en 1904. La même année, il épouse Perica Didolić.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Martin_Kuku%C4%8D%C3%ADn</t>
+          <t>Martin_Kukučín</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1883 - Na hradskej ceste
 1885 - Rysavá jalovica
